--- a/Dataset/Authors/PRUD_tituli.xlsx
+++ b/Dataset/Authors/PRUD_tituli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A786A4A-988B-4540-86ED-6F7A25177646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55142311-4362-48E4-B5EA-19CD757EF9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Aurelius Prudentius Clemens</t>
   </si>
   <si>
-    <t>Psychomachia</t>
-  </si>
-  <si>
     <t>PRUD. tituli</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>Tituli historiarum (vulgo 'Dittochaeon')</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
     </row>
     <row r="2" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -579,10 +579,10 @@
     </row>
     <row r="3" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -623,10 +623,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
